--- a/analysis/version79-shallow depth again.xlsx
+++ b/analysis/version79-shallow depth again.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>all programs are depth 10/16, randoff, 21000 kn/s</t>
-  </si>
-  <si>
     <t>version 78</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>E8</t>
+  </si>
+  <si>
+    <t>all programs are depth 10/16, randoff, 21000 kl/s</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -514,22 +514,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1585,27 +1585,27 @@
         <v>742.10526315789468</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" ref="R47:R52" si="5">P47/Q47</f>
+        <f t="shared" ref="R47:R50" si="5">P47/Q47</f>
         <v>1320</v>
       </c>
       <c r="S47">
